--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,132 @@
         <v>102.99</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43587.74572417654</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Adidas; Nome: Yeezy Boost 350 V2 'Cream White / Triple White'; Cores: Branco; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>250</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43587.7475450865</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Air Jordan; Nome: Air Jordan 4 Retro 'Laser'; Cores: Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>180</v>
+      </c>
+      <c r="J9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43587.7475450865</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Air Jordan; Nome: Air Jordan 1 Retro High OG Premium 'Yin Yang'; Cores: Branco/Preto; </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>275</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +776,132 @@
         <v>1375</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43587.74903742092</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Air Jordan; Nome: Air Jordan 4 Retro 'Laser'; Cores: Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>180</v>
+      </c>
+      <c r="J11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>43587.75411257044</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Adidas; Nome: Yeezy Boost 350 V2 'Cream White / Triple White'; Cores: Branco; </t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>250</v>
+      </c>
+      <c r="J12" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F32565_1556817073</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43587.75779609565</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Air Jordan; Nome: Air Jordan 4 Retro 'Laser'; Cores: Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>180</v>
+      </c>
+      <c r="J13" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,6 +902,300 @@
         <v>180</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Air Jordan; Nome: Air Jordan 1 Retro High OG Premium 'Yin Yang'; Cores: Branco/Preto; </t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>275</v>
+      </c>
+      <c r="J14" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Adidas; Nome: Pharrell x Solar Hu Glide ST 'Chinese New Year'; Cores: Escarlate/Branco/Preto; </t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>125</v>
+      </c>
+      <c r="J15" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Adidas; Nome: P.O.D. S3.1 'Alphatype'; Cores: Preto/Branco/Azul; </t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>195</v>
+      </c>
+      <c r="J16" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Nome: Air Max 97 Premium 'Black White'; Cores: Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>140</v>
+      </c>
+      <c r="J17" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Nome: Air Huarache Premium Zip 'Black'; Cores: Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Nome: Air Max 270 'Habanero Red'; Cores: Vermelho/Preto/Branco; </t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>F43556_1556817248</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>43587.75982270345</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Nome: Air Huarache Zip 'Bright Citron'; Cores: Amarelo/Branco/Preto; </t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>180</v>
+      </c>
+      <c r="J20" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
